--- a/Udemy/Memi Lavi/Project/resources_list.xlsx
+++ b/Udemy/Memi Lavi/Project/resources_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhasish/Development/GIT/Interstellar/SB-Azure/Udemy/Memi Lavi/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA8B4B0-D95E-5A40-ACC8-A7B3DAC138B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2232C8B0-F7A7-244D-A910-AD1CBF8E4F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="500" windowWidth="34480" windowHeight="20140" xr2:uid="{5BA57FA7-8E92-4029-A248-24F9453A1440}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Resources Helper List:</t>
   </si>
@@ -96,13 +96,19 @@
   </si>
   <si>
     <t>localhost:8080</t>
+  </si>
+  <si>
+    <t>localhost:5005</t>
+  </si>
+  <si>
+    <t>https://sb-readit-inventory.azurewebsites.net/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +139,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,15 +165,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -602,7 +619,7 @@
   <dimension ref="A12:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -634,67 +651,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -716,31 +739,19 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{52843068-FD1C-ED47-B6EF-98B4804E135A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך" ma:contentTypeID="0x010100898F1BA822CA7A4C9E1EECD7B51A5D33" ma:contentTypeVersion="12" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="292e6f1fa068b859e132649c2a3d4505">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e1b4877c-7963-4fff-ba17-2b68774beed0" xmlns:ns4="3b2c9cc2-5cae-4dfd-ac5b-cf044e8522f6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a51703ec1358e54068ea21a055be5de" ns3:_="" ns4:_="">
     <xsd:import namespace="e1b4877c-7963-4fff-ba17-2b68774beed0"/>
@@ -957,32 +968,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C70B530C-897A-4399-9B70-5D017B8BAB92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="e1b4877c-7963-4fff-ba17-2b68774beed0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3b2c9cc2-5cae-4dfd-ac5b-cf044e8522f6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A747CE42-258D-45DA-89E7-DE516928E2F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10A24DD0-6E43-439F-8DA8-5B3CDFECFD79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -999,4 +1000,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A747CE42-258D-45DA-89E7-DE516928E2F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C70B530C-897A-4399-9B70-5D017B8BAB92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="e1b4877c-7963-4fff-ba17-2b68774beed0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3b2c9cc2-5cae-4dfd-ac5b-cf044e8522f6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>